--- a/config.xlsx
+++ b/config.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26812"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenjintao/excel/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24740" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24740" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="master" sheetId="1" r:id="rId1"/>
@@ -19,51 +24,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>ID</t>
-  </si>
-  <si>
-    <t>eventID</t>
-  </si>
-  <si>
-    <t>winName</t>
-  </si>
-  <si>
-    <t>winID</t>
-  </si>
-  <si>
-    <t>btnName</t>
-  </si>
-  <si>
-    <t>btnID</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>btnDes</t>
-  </si>
-  <si>
-    <t>事件类型id</t>
-  </si>
-  <si>
-    <t>窗口名称</t>
-  </si>
-  <si>
-    <t>窗口id</t>
-  </si>
-  <si>
-    <t>按钮名称</t>
-  </si>
-  <si>
-    <t>按钮id</t>
-  </si>
-  <si>
-    <t>按钮添加日期</t>
-  </si>
-  <si>
-    <t>按钮描述</t>
   </si>
   <si>
     <t>STR</t>
@@ -199,16 +162,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -536,11 +504,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="20.6640625" customWidth="1"/>
     <col min="2" max="2" width="21.5" customWidth="1"/>
@@ -550,110 +518,68 @@
     <col min="11" max="11" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16">
+    <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="3"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -666,7 +592,7 @@
       <c r="J4" s="6"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -679,7 +605,7 @@
       <c r="J5" s="6"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -692,7 +618,7 @@
       <c r="J6" s="6"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -705,7 +631,7 @@
       <c r="J7" s="6"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -718,7 +644,7 @@
       <c r="J8" s="6"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -731,7 +657,7 @@
       <c r="J9" s="6"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -744,7 +670,7 @@
       <c r="J10" s="6"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -757,7 +683,7 @@
       <c r="J11" s="6"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -770,7 +696,7 @@
       <c r="J12" s="6"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -783,7 +709,7 @@
       <c r="J13" s="6"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -796,7 +722,7 @@
       <c r="J14" s="6"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -809,7 +735,7 @@
       <c r="J15" s="6"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -822,7 +748,7 @@
       <c r="J16" s="6"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -835,7 +761,7 @@
       <c r="J17" s="6"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -848,7 +774,7 @@
       <c r="J18" s="6"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -861,7 +787,7 @@
       <c r="J19" s="6"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -874,7 +800,7 @@
       <c r="J20" s="6"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -887,7 +813,7 @@
       <c r="J21" s="6"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -900,7 +826,7 @@
       <c r="J22" s="6"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -917,10 +843,5 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/config.xlsx
+++ b/config.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>ID</t>
   </si>
@@ -56,6 +56,10 @@
   </si>
   <si>
     <t>怪物名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sss</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -505,7 +509,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -551,7 +555,9 @@
         <v>8</v>
       </c>
       <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>

--- a/config.xlsx
+++ b/config.xlsx
@@ -1,18 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26812"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenjintao/excel/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="24740" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24760" windowHeight="15600" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="master" sheetId="1" r:id="rId1"/>
+    <sheet name="model" sheetId="2" r:id="rId2"/>
+    <sheet name="mastercig" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
   <si>
     <t>ID</t>
   </si>
@@ -59,7 +56,75 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sss</t>
+    <t>modelID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>modelName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>modelPic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物侦查虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxx.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虫族_侦查虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动速度 单位米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>harm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>masterName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -67,7 +132,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -129,6 +194,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="13.75"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -147,7 +220,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -155,8 +228,22 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -164,15 +251,30 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="21">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -508,11 +610,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="20.6640625" customWidth="1"/>
     <col min="2" max="2" width="21.5" customWidth="1"/>
@@ -522,7 +624,7 @@
     <col min="11" max="11" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -543,7 +645,7 @@
       <c r="J1" s="4"/>
       <c r="K1" s="3"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="14">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -555,16 +657,14 @@
         <v>8</v>
       </c>
       <c r="E2" s="1"/>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -585,11 +685,19 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1">
+        <v>1001</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1001</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2001</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -598,7 +706,7 @@
       <c r="J4" s="6"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -611,7 +719,7 @@
       <c r="J5" s="6"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -624,7 +732,7 @@
       <c r="J6" s="6"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -637,7 +745,7 @@
       <c r="J7" s="6"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -650,7 +758,7 @@
       <c r="J8" s="6"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -663,7 +771,7 @@
       <c r="J9" s="6"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -676,7 +784,7 @@
       <c r="J10" s="6"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -689,7 +797,7 @@
       <c r="J11" s="6"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -702,7 +810,7 @@
       <c r="J12" s="6"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -715,7 +823,7 @@
       <c r="J13" s="6"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -728,7 +836,7 @@
       <c r="J14" s="6"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -741,7 +849,7 @@
       <c r="J15" s="6"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -754,7 +862,7 @@
       <c r="J16" s="6"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:11">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -767,7 +875,7 @@
       <c r="J17" s="6"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -780,7 +888,7 @@
       <c r="J18" s="6"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:11">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -793,7 +901,7 @@
       <c r="J19" s="6"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:11">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -806,7 +914,7 @@
       <c r="J20" s="6"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:11">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -819,7 +927,7 @@
       <c r="J21" s="6"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:11">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -832,7 +940,7 @@
       <c r="J22" s="6"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:11">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -849,5 +957,189 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="16">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>2001</v>
+      </c>
+      <c r="B4">
+        <v>2001</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" customWidth="1"/>
+    <col min="5" max="6" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="17">
+      <c r="A2" s="1"/>
+      <c r="B2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>3001</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1001</v>
+      </c>
+      <c r="D4" s="1">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/config.xlsx
+++ b/config.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24760" windowHeight="15600" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24765" windowHeight="15600" tabRatio="500" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="master" sheetId="1" r:id="rId1"/>
     <sheet name="model" sheetId="2" r:id="rId2"/>
-    <sheet name="mastercig" sheetId="3" r:id="rId3"/>
+    <sheet name="mastercfg" sheetId="3" r:id="rId3"/>
+    <sheet name="scene1_cfg" sheetId="4" r:id="rId4"/>
+    <sheet name="hero" sheetId="5" r:id="rId5"/>
+    <sheet name="gun_pistol" sheetId="6" r:id="rId6"/>
+    <sheet name="gun_rifle" sheetId="7" r:id="rId7"/>
+    <sheet name="gun_shotgun" sheetId="8" r:id="rId8"/>
+    <sheet name="item_machinegun" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="65">
   <si>
     <t>ID</t>
   </si>
@@ -125,14 +131,166 @@
   </si>
   <si>
     <t>masterName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heroLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heroManPic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heroWomanPic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男性图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女性图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gunLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手枪等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gunPic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手枪图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>distance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>space</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击间隔 秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clipNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹夹数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>步枪等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>步枪图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fireEffet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开枪特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>散弹枪等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>散弹枪图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具机枪等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemPic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemCallTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemDurationTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemOpt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交互操作（1↑,2→,3↓,4←）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -202,6 +360,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFCE9178"/>
+      <name val="Monaco"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -243,7 +407,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -252,8 +416,10 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="21">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -264,17 +430,16 @@
     <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -607,24 +772,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B25" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="20.625" customWidth="1"/>
     <col min="2" max="2" width="21.5" customWidth="1"/>
-    <col min="3" max="3" width="21.83203125" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" customWidth="1"/>
-    <col min="11" max="11" width="22.33203125" customWidth="1"/>
+    <col min="3" max="3" width="21.875" customWidth="1"/>
+    <col min="4" max="4" width="20.625" customWidth="1"/>
+    <col min="5" max="5" width="12.125" customWidth="1"/>
+    <col min="11" max="11" width="22.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17">
+    <row r="1" spans="1:11" ht="16.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -645,7 +810,7 @@
       <c r="J1" s="4"/>
       <c r="K1" s="3"/>
     </row>
-    <row r="2" spans="1:11" ht="14">
+    <row r="2" spans="1:11">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -966,20 +1131,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16">
+    <row r="1" spans="1:4" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1046,21 +1211,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection sqref="A1:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="4" max="4" width="23.1640625" customWidth="1"/>
+    <col min="4" max="4" width="23.125" customWidth="1"/>
     <col min="5" max="6" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16">
+    <row r="1" spans="1:6" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1080,7 +1245,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="17">
+    <row r="2" spans="1:6" ht="18">
       <c r="A2" s="1"/>
       <c r="B2" s="7" t="s">
         <v>8</v>
@@ -1135,11 +1300,1024 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="21.5" customWidth="1"/>
+    <col min="2" max="2" width="20.375" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="20.25" customWidth="1"/>
+    <col min="5" max="5" width="12.875" customWidth="1"/>
+    <col min="6" max="6" width="21.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="18">
+      <c r="A2" s="1"/>
+      <c r="B2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>3001</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1001</v>
+      </c>
+      <c r="D4" s="1">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="20.625" customWidth="1"/>
+    <col min="2" max="2" width="21.5" customWidth="1"/>
+    <col min="3" max="3" width="21.875" customWidth="1"/>
+    <col min="4" max="4" width="20.625" customWidth="1"/>
+    <col min="5" max="5" width="12.125" customWidth="1"/>
+    <col min="7" max="7" width="15.125" customWidth="1"/>
+    <col min="11" max="11" width="22.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="16.5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="3"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1">
+        <v>100001</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1">
+        <v>100</v>
+      </c>
+      <c r="F4" s="1">
+        <v>30</v>
+      </c>
+      <c r="G4" s="1">
+        <v>20</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="3" max="3" width="12.875" customWidth="1"/>
+    <col min="6" max="6" width="11.25" customWidth="1"/>
+    <col min="7" max="7" width="15.875" customWidth="1"/>
+    <col min="8" max="8" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>110001</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1">
+        <v>30</v>
+      </c>
+      <c r="E4" s="1">
+        <v>100</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>7</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G35" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="3" max="3" width="12.875" customWidth="1"/>
+    <col min="6" max="6" width="11.25" customWidth="1"/>
+    <col min="7" max="7" width="15.875" customWidth="1"/>
+    <col min="8" max="8" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>120001</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1">
+        <v>30</v>
+      </c>
+      <c r="E4" s="1">
+        <v>100</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>30</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A1:H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="13.625" customWidth="1"/>
+    <col min="3" max="3" width="12.875" customWidth="1"/>
+    <col min="6" max="6" width="11.25" customWidth="1"/>
+    <col min="7" max="7" width="15.875" customWidth="1"/>
+    <col min="8" max="8" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>130001</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1">
+        <v>30</v>
+      </c>
+      <c r="E4" s="1">
+        <v>100</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>30</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="3" width="15.125" customWidth="1"/>
+    <col min="4" max="4" width="23.5" customWidth="1"/>
+    <col min="5" max="5" width="36.875" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="13.125" customWidth="1"/>
+    <col min="8" max="8" width="12.375" customWidth="1"/>
+    <col min="9" max="9" width="14.75" customWidth="1"/>
+    <col min="10" max="10" width="13.75" customWidth="1"/>
+    <col min="11" max="11" width="19.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1">
+        <v>140001</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1">
+        <v>60</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="1">
+        <v>30</v>
+      </c>
+      <c r="H4" s="1">
+        <v>100</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="J4" s="1">
+        <v>30</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/config.xlsx
+++ b/config.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24765" windowHeight="15600" tabRatio="500" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24765" windowHeight="15600" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="master" sheetId="1" r:id="rId1"/>
     <sheet name="model" sheetId="2" r:id="rId2"/>
-    <sheet name="mastercfg" sheetId="3" r:id="rId3"/>
+    <sheet name="mostercfg" sheetId="3" r:id="rId3"/>
     <sheet name="scene1_cfg" sheetId="4" r:id="rId4"/>
     <sheet name="hero" sheetId="5" r:id="rId5"/>
     <sheet name="gun_pistol" sheetId="6" r:id="rId6"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="66">
   <si>
     <t>ID</t>
   </si>
@@ -283,6 +283,10 @@
   </si>
   <si>
     <t>1,2,3,4,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mosterName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1214,8 +1218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection sqref="A1:F4"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1230,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>18</v>
@@ -1788,7 +1792,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2161,7 +2165,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -2319,5 +2323,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>